--- a/dammy-data/test_data_3.xlsx
+++ b/dammy-data/test_data_3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shunt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shunt\tasuke-ru-2\task-ru\dammy-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17581698-E554-4316-A477-F4A2EF8B1FEC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69EAB26-9BB9-45CC-9BA0-3A2E124C0DE6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4B7B13BA-CBF5-4572-A684-3AD26FC56B40}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -142,7 +142,79 @@
     <t>std</t>
   </si>
   <si>
-    <t>path</t>
+    <t>path-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>path-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>path-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>path-4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>path-5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学コード</t>
+    <rPh sb="0" eb="2">
+      <t>ダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大学名</t>
+    <rPh sb="0" eb="3">
+      <t>ダイガクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京大学</t>
+    <rPh sb="0" eb="4">
+      <t>トウキョウダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>筑波大学</t>
+    <rPh sb="0" eb="4">
+      <t>ツクバダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>東京学芸大学</t>
+    <rPh sb="0" eb="6">
+      <t>トウキョウガクゲイダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>埼玉医科大学</t>
+    <rPh sb="0" eb="6">
+      <t>サイタマイカダイガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聖徳大学</t>
+    <rPh sb="0" eb="3">
+      <t>セイトクダイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>university</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -507,15 +579,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BD7CB6-7FE0-4BBA-ACE2-A0970DD41992}">
-  <dimension ref="A1:AG104"/>
+  <dimension ref="A1:AH115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q82" workbookViewId="0">
-      <selection activeCell="AJ104" sqref="AJ104"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,8 +691,11 @@
       <c r="AG1" t="s">
         <v>32</v>
       </c>
+      <c r="AH1" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -717,8 +796,12 @@
         <f>10*(Q2-Q$102)/Q$103+50</f>
         <v>55.944217217204773</v>
       </c>
+      <c r="AH2">
+        <f ca="1">RANDBETWEEN(1,5)</f>
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>2</v>
       </c>
@@ -819,8 +902,12 @@
         <f t="shared" ref="AG3:AG66" si="0">10*(Q3-Q$102)/Q$103+50</f>
         <v>42.771436680462891</v>
       </c>
+      <c r="AH3">
+        <f t="shared" ref="AH3:AH66" ca="1" si="1">RANDBETWEEN(1,5)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>3</v>
       </c>
@@ -921,8 +1008,12 @@
         <f t="shared" si="0"/>
         <v>55.532567825431585</v>
       </c>
+      <c r="AH4">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1023,8 +1114,12 @@
         <f t="shared" si="0"/>
         <v>48.12287877351428</v>
       </c>
+      <c r="AH5">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1125,8 +1220,12 @@
         <f t="shared" si="0"/>
         <v>40.713189721596976</v>
       </c>
+      <c r="AH6">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1227,8 +1326,12 @@
         <f t="shared" si="0"/>
         <v>43.18308607223608</v>
       </c>
+      <c r="AH7">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1329,8 +1432,12 @@
         <f t="shared" si="0"/>
         <v>41.948137896916528</v>
       </c>
+      <c r="AH8">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1431,8 +1538,12 @@
         <f t="shared" si="0"/>
         <v>61.295659310256163</v>
       </c>
+      <c r="AH9">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1533,8 +1644,12 @@
         <f t="shared" si="0"/>
         <v>45.241333031101995</v>
       </c>
+      <c r="AH10">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1635,8 +1750,12 @@
         <f t="shared" si="0"/>
         <v>27.952058576628279</v>
       </c>
+      <c r="AH11">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1737,8 +1856,12 @@
         <f t="shared" si="0"/>
         <v>60.472360526709792</v>
       </c>
+      <c r="AH12">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1839,8 +1962,12 @@
         <f t="shared" si="0"/>
         <v>58.825762959617059</v>
       </c>
+      <c r="AH13">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1941,8 +2068,12 @@
         <f t="shared" si="0"/>
         <v>54.29761965011204</v>
       </c>
+      <c r="AH14">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2043,8 +2174,12 @@
         <f t="shared" si="0"/>
         <v>44.418034247555624</v>
       </c>
+      <c r="AH15">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2145,8 +2280,12 @@
         <f t="shared" si="0"/>
         <v>36.18504641209195</v>
       </c>
+      <c r="AH16">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2247,8 +2386,12 @@
         <f t="shared" si="0"/>
         <v>38.654942762731054</v>
       </c>
+      <c r="AH17">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2349,8 +2492,12 @@
         <f t="shared" si="0"/>
         <v>50.181125732380202</v>
       </c>
+      <c r="AH18">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2451,8 +2598,12 @@
         <f t="shared" si="0"/>
         <v>60.884009918482974</v>
       </c>
+      <c r="AH19">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2553,8 +2704,12 @@
         <f t="shared" si="0"/>
         <v>53.885970258338851</v>
       </c>
+      <c r="AH20">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2655,8 +2810,12 @@
         <f t="shared" si="0"/>
         <v>42.359787288689709</v>
       </c>
+      <c r="AH21">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2757,8 +2916,12 @@
         <f t="shared" si="0"/>
         <v>70.763595321039389</v>
       </c>
+      <c r="AH22">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2859,8 +3022,12 @@
         <f t="shared" si="0"/>
         <v>47.299579989967917</v>
       </c>
+      <c r="AH23">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2961,8 +3128,12 @@
         <f t="shared" si="0"/>
         <v>44.006384855782443</v>
       </c>
+      <c r="AH24">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3063,8 +3234,12 @@
         <f t="shared" si="0"/>
         <v>40.713189721596976</v>
       </c>
+      <c r="AH25">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3165,8 +3340,12 @@
         <f t="shared" si="0"/>
         <v>35.773397020318768</v>
       </c>
+      <c r="AH26">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3267,8 +3446,12 @@
         <f t="shared" si="0"/>
         <v>53.885970258338851</v>
       </c>
+      <c r="AH27">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3369,8 +3552,12 @@
         <f t="shared" si="0"/>
         <v>51.827723299472936</v>
       </c>
+      <c r="AH28">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3471,8 +3658,12 @@
         <f t="shared" si="0"/>
         <v>55.532567825431585</v>
       </c>
+      <c r="AH29">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3573,8 +3764,12 @@
         <f t="shared" si="0"/>
         <v>39.889890938050605</v>
       </c>
+      <c r="AH30">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3675,8 +3870,12 @@
         <f t="shared" si="0"/>
         <v>46.064631814648365</v>
       </c>
+      <c r="AH31">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3777,8 +3976,12 @@
         <f t="shared" si="0"/>
         <v>65.823802619761182</v>
       </c>
+      <c r="AH32">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3879,8 +4082,12 @@
         <f t="shared" si="0"/>
         <v>54.29761965011204</v>
       </c>
+      <c r="AH33">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3981,8 +4188,12 @@
         <f t="shared" si="0"/>
         <v>58.41411356784387</v>
       </c>
+      <c r="AH34">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4083,8 +4294,12 @@
         <f t="shared" si="0"/>
         <v>41.536488505143339</v>
       </c>
+      <c r="AH35">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4185,8 +4400,12 @@
         <f t="shared" si="0"/>
         <v>78.173284372956687</v>
       </c>
+      <c r="AH36">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4287,8 +4506,12 @@
         <f t="shared" si="0"/>
         <v>47.299579989967917</v>
       </c>
+      <c r="AH37">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4389,8 +4612,12 @@
         <f t="shared" si="0"/>
         <v>41.124839113370157</v>
       </c>
+      <c r="AH38">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4491,8 +4718,12 @@
         <f t="shared" si="0"/>
         <v>69.52864714571983</v>
       </c>
+      <c r="AH39">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4593,8 +4824,12 @@
         <f t="shared" si="0"/>
         <v>42.771436680462891</v>
       </c>
+      <c r="AH40">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4695,8 +4930,12 @@
         <f t="shared" si="0"/>
         <v>55.944217217204773</v>
       </c>
+      <c r="AH41">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4797,8 +5036,12 @@
         <f t="shared" si="0"/>
         <v>28.775357360174645</v>
       </c>
+      <c r="AH42">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4899,8 +5142,12 @@
         <f t="shared" si="0"/>
         <v>55.532567825431585</v>
       </c>
+      <c r="AH43">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5001,8 +5248,12 @@
         <f t="shared" si="0"/>
         <v>53.062671474792488</v>
       </c>
+      <c r="AH44">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5103,8 +5354,12 @@
         <f t="shared" si="0"/>
         <v>34.538448844999216</v>
       </c>
+      <c r="AH45">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
@@ -5205,8 +5460,12 @@
         <f t="shared" si="0"/>
         <v>44.829683639328813</v>
       </c>
+      <c r="AH46">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
@@ -5307,8 +5566,12 @@
         <f t="shared" si="0"/>
         <v>45.652982422875176</v>
       </c>
+      <c r="AH47">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
@@ -5409,8 +5672,12 @@
         <f t="shared" si="0"/>
         <v>60.060711134936611</v>
       </c>
+      <c r="AH48">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
@@ -5511,8 +5778,12 @@
         <f t="shared" si="0"/>
         <v>53.885970258338851</v>
       </c>
+      <c r="AH49">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
@@ -5613,8 +5884,12 @@
         <f t="shared" si="0"/>
         <v>48.12287877351428</v>
       </c>
+      <c r="AH50">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
@@ -5715,8 +5990,12 @@
         <f t="shared" si="0"/>
         <v>45.241333031101995</v>
       </c>
+      <c r="AH51">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
@@ -5817,8 +6096,12 @@
         <f t="shared" si="0"/>
         <v>45.241333031101995</v>
       </c>
+      <c r="AH52">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
@@ -5919,8 +6202,12 @@
         <f t="shared" si="0"/>
         <v>56.355866608977955</v>
       </c>
+      <c r="AH53">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="54" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6021,8 +6308,12 @@
         <f t="shared" si="0"/>
         <v>44.829683639328813</v>
       </c>
+      <c r="AH54">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6123,8 +6414,12 @@
         <f t="shared" si="0"/>
         <v>52.651022083019299</v>
       </c>
+      <c r="AH55">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6225,8 +6520,12 @@
         <f t="shared" si="0"/>
         <v>63.765555660895259</v>
       </c>
+      <c r="AH56">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6327,8 +6626,12 @@
         <f t="shared" si="0"/>
         <v>64.177205052668441</v>
       </c>
+      <c r="AH57">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6429,8 +6732,12 @@
         <f t="shared" si="0"/>
         <v>62.530607485575715</v>
       </c>
+      <c r="AH58">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6531,8 +6838,12 @@
         <f t="shared" si="0"/>
         <v>36.18504641209195</v>
       </c>
+      <c r="AH59">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6633,8 +6944,12 @@
         <f t="shared" si="0"/>
         <v>62.118958093802526</v>
       </c>
+      <c r="AH60">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6735,8 +7050,12 @@
         <f t="shared" si="0"/>
         <v>55.944217217204773</v>
       </c>
+      <c r="AH61">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6837,8 +7156,12 @@
         <f t="shared" si="0"/>
         <v>54.709269041885221</v>
       </c>
+      <c r="AH62">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6939,8 +7262,12 @@
         <f t="shared" si="0"/>
         <v>67.058750795080726</v>
       </c>
+      <c r="AH63">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
@@ -7041,8 +7368,12 @@
         <f t="shared" si="0"/>
         <v>29.598656143721016</v>
       </c>
+      <c r="AH64">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="65" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
@@ -7143,8 +7474,12 @@
         <f t="shared" si="0"/>
         <v>46.064631814648365</v>
       </c>
+      <c r="AH65">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="66" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
@@ -7245,8 +7580,12 @@
         <f t="shared" si="0"/>
         <v>47.299579989967917</v>
       </c>
+      <c r="AH66">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="67" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
@@ -7344,11 +7683,15 @@
         <v>48.301144399999998</v>
       </c>
       <c r="AG67">
-        <f t="shared" ref="AG67:AG101" si="1">10*(Q67-Q$102)/Q$103+50</f>
+        <f t="shared" ref="AG67:AG101" si="2">10*(Q67-Q$102)/Q$103+50</f>
         <v>42.359787288689709</v>
       </c>
+      <c r="AH67">
+        <f t="shared" ref="AH67:AH101" ca="1" si="3">RANDBETWEEN(1,5)</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="68" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
@@ -7446,11 +7789,15 @@
         <v>59.144903550000002</v>
       </c>
       <c r="AG68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.002464176070688</v>
       </c>
+      <c r="AH68">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="69" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
@@ -7548,11 +7895,15 @@
         <v>48.301144399999998</v>
       </c>
       <c r="AG69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>63.353906269122078</v>
       </c>
+      <c r="AH69">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="70" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
@@ -7650,11 +8001,15 @@
         <v>33.119881589999999</v>
       </c>
       <c r="AG70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42.359787288689709</v>
       </c>
+      <c r="AH70">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="71" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
@@ -7752,11 +8107,15 @@
         <v>53.361565339999999</v>
       </c>
       <c r="AG71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.532567825431585</v>
       </c>
+      <c r="AH71">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="72" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
@@ -7854,11 +8213,15 @@
         <v>43.240723459999998</v>
       </c>
       <c r="AG72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>42.359787288689709</v>
       </c>
+      <c r="AH72">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="73" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
@@ -7956,11 +8319,15 @@
         <v>58.421986269999998</v>
       </c>
       <c r="AG73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41.948137896916528</v>
       </c>
+      <c r="AH73">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="74" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
@@ -8058,11 +8425,15 @@
         <v>67.096993589999997</v>
       </c>
       <c r="AG74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52.651022083019299</v>
       </c>
+      <c r="AH74">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="75" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
@@ -8160,11 +8531,15 @@
         <v>59.867820819999999</v>
       </c>
       <c r="AG75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57.590814784297507</v>
       </c>
+      <c r="AH75">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="76" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
@@ -8262,11 +8637,15 @@
         <v>21.553205169999998</v>
       </c>
       <c r="AG76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>38.243293370957872</v>
       </c>
+      <c r="AH76">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="77" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
@@ -8364,11 +8743,15 @@
         <v>47.578227120000001</v>
       </c>
       <c r="AG77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.18504641209195</v>
       </c>
+      <c r="AH77">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="78" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
@@ -8466,11 +8849,15 @@
         <v>49.746978949999999</v>
       </c>
       <c r="AG78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>60.884009918482974</v>
       </c>
+      <c r="AH78">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="79" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
@@ -8568,11 +8955,15 @@
         <v>49.024061680000003</v>
       </c>
       <c r="AG79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>55.120918433658403</v>
       </c>
+      <c r="AH79">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="80" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
@@ -8670,11 +9061,15 @@
         <v>55.530317169999996</v>
       </c>
       <c r="AG80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.29761965011204</v>
       </c>
+      <c r="AH80">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="81" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
@@ -8772,11 +9167,15 @@
         <v>56.25323444</v>
       </c>
       <c r="AG81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>71.586894104585753</v>
       </c>
+      <c r="AH81">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="82" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
@@ -8874,11 +9273,15 @@
         <v>55.530317169999996</v>
       </c>
       <c r="AG82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>61.295659310256163</v>
       </c>
+      <c r="AH82">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="83" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
@@ -8976,11 +9379,15 @@
         <v>62.759489930000001</v>
       </c>
       <c r="AG83">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43.594735464009261</v>
       </c>
+      <c r="AH83">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="84" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
@@ -9078,11 +9485,15 @@
         <v>60.590738100000003</v>
       </c>
       <c r="AG84">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65.412153227988</v>
       </c>
+      <c r="AH84">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="85" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
@@ -9180,11 +9591,15 @@
         <v>46.855309849999998</v>
       </c>
       <c r="AG85">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>54.29761965011204</v>
       </c>
+      <c r="AH85">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="86" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
@@ -9282,11 +9697,15 @@
         <v>60.590738100000003</v>
       </c>
       <c r="AG86">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>51.827723299472936</v>
       </c>
+      <c r="AH86">
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="87" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
@@ -9384,11 +9803,15 @@
         <v>58.421986269999998</v>
       </c>
       <c r="AG87">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>53.47432086656567</v>
       </c>
+      <c r="AH87">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="88" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
@@ -9486,11 +9909,15 @@
         <v>46.855309849999998</v>
       </c>
       <c r="AG88">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>47.299579989967917</v>
       </c>
+      <c r="AH88">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="89" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
@@ -9588,11 +10015,15 @@
         <v>51.192813510000001</v>
       </c>
       <c r="AG89">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>49.357826948833832</v>
       </c>
+      <c r="AH89">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="90" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
@@ -9690,11 +10121,15 @@
         <v>34.56571615</v>
       </c>
       <c r="AG90">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>35.361747628545587</v>
       </c>
+      <c r="AH90">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="91" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
@@ -9792,11 +10227,15 @@
         <v>49.024061680000003</v>
       </c>
       <c r="AG91">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37.83164397918469</v>
       </c>
+      <c r="AH91">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="92" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
@@ -9894,11 +10333,15 @@
         <v>54.807399889999999</v>
       </c>
       <c r="AG92">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37.00834519563832</v>
       </c>
+      <c r="AH92">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="93" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>92</v>
       </c>
@@ -9996,11 +10439,15 @@
         <v>44.68655802</v>
       </c>
       <c r="AG93">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>58.002464176070688</v>
       </c>
+      <c r="AH93">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="94" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>93</v>
       </c>
@@ -10098,11 +10545,15 @@
         <v>38.180302529999999</v>
       </c>
       <c r="AG94">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41.124839113370157</v>
       </c>
+      <c r="AH94">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="95" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>94</v>
       </c>
@@ -10200,11 +10651,15 @@
         <v>69.988662700000006</v>
       </c>
       <c r="AG95">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44.006384855782443</v>
       </c>
+      <c r="AH95">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
     </row>
-    <row r="96" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>95</v>
       </c>
@@ -10302,11 +10757,15 @@
         <v>64.928241760000006</v>
       </c>
       <c r="AG96">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50.181125732380202</v>
       </c>
+      <c r="AH96">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="97" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>96</v>
       </c>
@@ -10404,11 +10863,15 @@
         <v>43.240723459999998</v>
       </c>
       <c r="AG97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>50.181125732380202</v>
       </c>
+      <c r="AH97">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="98" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>97</v>
       </c>
@@ -10506,11 +10969,15 @@
         <v>59.867820819999999</v>
       </c>
       <c r="AG98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>57.590814784297507</v>
       </c>
+      <c r="AH98">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="99" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>98</v>
       </c>
@@ -10608,11 +11075,15 @@
         <v>35.288633419999996</v>
       </c>
       <c r="AG99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41.948137896916528</v>
       </c>
+      <c r="AH99">
+        <f t="shared" ca="1" si="3"/>
+        <v>5</v>
+      </c>
     </row>
-    <row r="100" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>99</v>
       </c>
@@ -10710,11 +11181,15 @@
         <v>44.68655802</v>
       </c>
       <c r="AG100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41.536488505143339</v>
       </c>
+      <c r="AH100">
+        <f t="shared" ca="1" si="3"/>
+        <v>2</v>
+      </c>
     </row>
-    <row r="101" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>100</v>
       </c>
@@ -10812,11 +11287,15 @@
         <v>48.301144399999998</v>
       </c>
       <c r="AG101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>44.418034247555624</v>
       </c>
+      <c r="AH101">
+        <f t="shared" ca="1" si="3"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="102" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
         <v>33</v>
       </c>
@@ -10869,7 +11348,7 @@
         <v>152.56</v>
       </c>
     </row>
-    <row r="103" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
         <v>34</v>
       </c>
@@ -10922,137 +11401,667 @@
         <v>24.292517369999999</v>
       </c>
     </row>
-    <row r="104" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:34" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
         <v>35</v>
       </c>
       <c r="B104">
-        <f ca="1">RANDBETWEEN(22,25)</f>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C104">
-        <f t="shared" ref="C104:F104" ca="1" si="2">RANDBETWEEN(22,25)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D104">
-        <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E104">
-        <f t="shared" ca="1" si="2"/>
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F104">
-        <f ca="1">SUM(B104:E104)</f>
-        <v>93</v>
+        <f>SUM(B104:E104)</f>
+        <v>80</v>
       </c>
       <c r="G104">
-        <f ca="1">RANDBETWEEN(22,25)</f>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H104">
-        <f t="shared" ref="H104:J104" ca="1" si="3">RANDBETWEEN(22,25)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I104">
-        <f t="shared" ca="1" si="3"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J104">
-        <f t="shared" ca="1" si="3"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K104">
-        <f ca="1">SUM(G104:J104)</f>
-        <v>97</v>
+        <f>SUM(G104:J104)</f>
+        <v>80</v>
       </c>
       <c r="L104">
-        <f ca="1">RANDBETWEEN(22,25)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M104">
-        <f t="shared" ref="M104:O104" ca="1" si="4">RANDBETWEEN(22,25)</f>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N104">
-        <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="O104">
-        <f t="shared" ca="1" si="4"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="P104">
-        <f ca="1">SUM(L104:O104)</f>
-        <v>93</v>
+        <f>SUM(L104:O104)</f>
+        <v>80</v>
       </c>
       <c r="Q104">
-        <f ca="1">P104+K104+F104</f>
-        <v>283</v>
+        <f>P104+K104+F104</f>
+        <v>240</v>
       </c>
       <c r="R104">
-        <f ca="1">10*(B104-B$102)/B$103+50</f>
-        <v>62.656262199284519</v>
+        <f>10*(B104-B$102)/B$103+50</f>
+        <v>59.828047182684628</v>
       </c>
       <c r="S104">
-        <f t="shared" ref="S104:AG104" ca="1" si="5">10*(C104-C$102)/C$103+50</f>
-        <v>67.84611718608447</v>
+        <f t="shared" ref="S104:AG105" si="4">10*(C104-C$102)/C$103+50</f>
+        <v>60.998029240541698</v>
       </c>
       <c r="T104">
-        <f t="shared" ca="1" si="5"/>
-        <v>66.929566263539243</v>
+        <f t="shared" si="4"/>
+        <v>61.626648091718025</v>
       </c>
       <c r="U104">
-        <f t="shared" ca="1" si="5"/>
-        <v>60.480639292573244</v>
+        <f t="shared" si="4"/>
+        <v>57.899201043170969</v>
       </c>
       <c r="V104">
-        <f t="shared" ca="1" si="5"/>
-        <v>78.378092388844237</v>
+        <f t="shared" si="4"/>
+        <v>69.772652662812618</v>
       </c>
       <c r="W104">
-        <f t="shared" ca="1" si="5"/>
-        <v>65.630752389136163</v>
+        <f t="shared" si="4"/>
+        <v>59.224706328014783</v>
       </c>
       <c r="X104">
-        <f t="shared" ca="1" si="5"/>
-        <v>64.89238127603906</v>
+        <f t="shared" si="4"/>
+        <v>59.676135645202265</v>
       </c>
       <c r="Y104">
-        <f t="shared" ca="1" si="5"/>
-        <v>63.486247077793379</v>
+        <f t="shared" si="4"/>
+        <v>59.484393345510476</v>
       </c>
       <c r="Z104">
-        <f t="shared" ca="1" si="5"/>
-        <v>65.766957946124663</v>
+        <f t="shared" si="4"/>
+        <v>59.299788977246621</v>
       </c>
       <c r="AA104">
-        <f t="shared" ca="1" si="5"/>
-        <v>78.45465813988136</v>
+        <f t="shared" si="4"/>
+        <v>67.920485919106454</v>
       </c>
       <c r="AB104">
-        <f t="shared" ca="1" si="5"/>
-        <v>63.775836943220419</v>
+        <f t="shared" si="4"/>
+        <v>59.782840727794209</v>
       </c>
       <c r="AC104">
-        <f t="shared" ca="1" si="5"/>
-        <v>62.961901904560548</v>
+        <f t="shared" si="4"/>
+        <v>58.872973858957849</v>
       </c>
       <c r="AD104">
-        <f t="shared" ca="1" si="5"/>
-        <v>66.5455976358665</v>
+        <f t="shared" si="4"/>
+        <v>60.845133334103714</v>
       </c>
       <c r="AE104">
-        <f t="shared" ca="1" si="5"/>
-        <v>63.386905382678819</v>
+        <f t="shared" si="4"/>
+        <v>59.441844857331432</v>
       </c>
       <c r="AF104">
-        <f t="shared" ca="1" si="5"/>
-        <v>80.109504559517333</v>
+        <f t="shared" si="4"/>
+        <v>70.711579967110964</v>
       </c>
       <c r="AG104">
-        <f t="shared" ca="1" si="5"/>
-        <v>103.69554666289409</v>
+        <f t="shared" si="4"/>
+        <v>85.99462281664718</v>
+      </c>
+      <c r="AH104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>36</v>
+      </c>
+      <c r="B105">
+        <v>17</v>
+      </c>
+      <c r="C105">
+        <v>17</v>
+      </c>
+      <c r="D105">
+        <v>17</v>
+      </c>
+      <c r="E105">
+        <v>17</v>
+      </c>
+      <c r="F105">
+        <f>SUM(B105:E105)</f>
+        <v>68</v>
+      </c>
+      <c r="G105">
+        <v>17</v>
+      </c>
+      <c r="H105">
+        <v>17</v>
+      </c>
+      <c r="I105">
+        <v>17</v>
+      </c>
+      <c r="J105">
+        <v>17</v>
+      </c>
+      <c r="K105">
+        <f>SUM(G105:J105)</f>
+        <v>68</v>
+      </c>
+      <c r="L105">
+        <v>17</v>
+      </c>
+      <c r="M105">
+        <v>17</v>
+      </c>
+      <c r="N105">
+        <v>17</v>
+      </c>
+      <c r="O105">
+        <v>17</v>
+      </c>
+      <c r="P105">
+        <f>SUM(L105:O105)</f>
+        <v>68</v>
+      </c>
+      <c r="Q105">
+        <f>P105+K105+F105</f>
+        <v>204</v>
+      </c>
+      <c r="R105">
+        <f>10*(B105-B$102)/B$103+50</f>
+        <v>55.585724657784787</v>
+      </c>
+      <c r="S105">
+        <f t="shared" ref="S105" si="5">10*(C105-C$102)/C$103+50</f>
+        <v>56.889176473216033</v>
+      </c>
+      <c r="T105">
+        <f t="shared" ref="T105" si="6">10*(D105-D$102)/D$103+50</f>
+        <v>57.649459462852107</v>
+      </c>
+      <c r="U105">
+        <f t="shared" ref="U105" si="7">10*(E105-E$102)/E$103+50</f>
+        <v>54.027043669067552</v>
+      </c>
+      <c r="V105">
+        <f t="shared" ref="V105" si="8">10*(F105-F$102)/F$103+50</f>
+        <v>61.82916983878345</v>
+      </c>
+      <c r="W105">
+        <f t="shared" ref="W105" si="9">10*(G105-G$102)/G$103+50</f>
+        <v>55.381078691341955</v>
+      </c>
+      <c r="X105">
+        <f t="shared" ref="X105" si="10">10*(H105-H$102)/H$103+50</f>
+        <v>55.763951422074662</v>
+      </c>
+      <c r="Y105">
+        <f t="shared" ref="Y105" si="11">10*(I105-I$102)/I$103+50</f>
+        <v>55.482539613227573</v>
+      </c>
+      <c r="Z105">
+        <f t="shared" ref="Z105" si="12">10*(J105-J$102)/J$103+50</f>
+        <v>55.419487595919797</v>
+      </c>
+      <c r="AA105">
+        <f t="shared" ref="AA105" si="13">10*(K105-K$102)/K$103+50</f>
+        <v>60.484599645618303</v>
+      </c>
+      <c r="AB105">
+        <f t="shared" ref="AB105" si="14">10*(L105-L$102)/L$103+50</f>
+        <v>55.789844512367999</v>
+      </c>
+      <c r="AC105">
+        <f t="shared" ref="AC105" si="15">10*(M105-M$102)/M$103+50</f>
+        <v>54.784045813355149</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" ref="AD105" si="16">10*(N105-N$102)/N$103+50</f>
+        <v>56.56978510778162</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" ref="AE105" si="17">10*(O105-O$102)/O$103+50</f>
+        <v>55.496784331984031</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="4"/>
+        <v>62.036572651043542</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" ref="AG105" si="18">10*(Q105-Q$102)/Q$103+50</f>
+        <v>71.175244712812571</v>
+      </c>
+      <c r="AH105">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>37</v>
+      </c>
+      <c r="B106">
+        <v>15</v>
+      </c>
+      <c r="C106">
+        <v>15</v>
+      </c>
+      <c r="D106">
+        <v>15</v>
+      </c>
+      <c r="E106">
+        <v>15</v>
+      </c>
+      <c r="F106">
+        <f>SUM(B106:E106)</f>
+        <v>60</v>
+      </c>
+      <c r="G106">
+        <v>15</v>
+      </c>
+      <c r="H106">
+        <v>15</v>
+      </c>
+      <c r="I106">
+        <v>15</v>
+      </c>
+      <c r="J106">
+        <v>15</v>
+      </c>
+      <c r="K106">
+        <f>SUM(G106:J106)</f>
+        <v>60</v>
+      </c>
+      <c r="L106">
+        <v>15</v>
+      </c>
+      <c r="M106">
+        <v>15</v>
+      </c>
+      <c r="N106">
+        <v>15</v>
+      </c>
+      <c r="O106">
+        <v>15</v>
+      </c>
+      <c r="P106">
+        <v>60</v>
+      </c>
+      <c r="Q106">
+        <f>P106+K106+F106</f>
+        <v>180</v>
+      </c>
+      <c r="R106">
+        <f>10*(B106-B$102)/B$103+50</f>
+        <v>52.757509641184896</v>
+      </c>
+      <c r="S106">
+        <f t="shared" ref="S106" si="19">10*(C106-C$102)/C$103+50</f>
+        <v>54.149941294998918</v>
+      </c>
+      <c r="T106">
+        <f t="shared" ref="T106" si="20">10*(D106-D$102)/D$103+50</f>
+        <v>54.998000376941498</v>
+      </c>
+      <c r="U106">
+        <f t="shared" ref="U106" si="21">10*(E106-E$102)/E$103+50</f>
+        <v>51.445605419665277</v>
+      </c>
+      <c r="V106">
+        <f t="shared" ref="V106" si="22">10*(F106-F$102)/F$103+50</f>
+        <v>56.533514622763995</v>
+      </c>
+      <c r="W106">
+        <f t="shared" ref="W106" si="23">10*(G106-G$102)/G$103+50</f>
+        <v>52.818660266893403</v>
+      </c>
+      <c r="X106">
+        <f t="shared" ref="X106" si="24">10*(H106-H$102)/H$103+50</f>
+        <v>53.155828606656264</v>
+      </c>
+      <c r="Y106">
+        <f t="shared" ref="Y106" si="25">10*(I106-I$102)/I$103+50</f>
+        <v>52.814637125038971</v>
+      </c>
+      <c r="Z106">
+        <f t="shared" ref="Z106" si="26">10*(J106-J$102)/J$103+50</f>
+        <v>52.832620008368579</v>
+      </c>
+      <c r="AA106">
+        <f t="shared" ref="AA106" si="27">10*(K106-K$102)/K$103+50</f>
+        <v>55.527342129959536</v>
+      </c>
+      <c r="AB106">
+        <f t="shared" ref="AB106" si="28">10*(L106-L$102)/L$103+50</f>
+        <v>53.127847035417197</v>
+      </c>
+      <c r="AC106">
+        <f t="shared" ref="AC106" si="29">10*(M106-M$102)/M$103+50</f>
+        <v>52.058093782953357</v>
+      </c>
+      <c r="AD106">
+        <f t="shared" ref="AD106" si="30">10*(N106-N$102)/N$103+50</f>
+        <v>53.719552956900223</v>
+      </c>
+      <c r="AE106">
+        <f t="shared" ref="AE106" si="31">10*(O106-O$102)/O$103+50</f>
+        <v>52.866743981752435</v>
+      </c>
+      <c r="AF106">
+        <f t="shared" ref="AF106" si="32">10*(P106-P$102)/P$103+50</f>
+        <v>56.25323444033193</v>
+      </c>
+      <c r="AG106">
+        <f t="shared" ref="AG106" si="33">10*(Q106-Q$102)/Q$103+50</f>
+        <v>61.295659310256163</v>
+      </c>
+      <c r="AH106">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>38</v>
+      </c>
+      <c r="B107">
+        <v>13</v>
+      </c>
+      <c r="C107">
+        <v>13</v>
+      </c>
+      <c r="D107">
+        <v>13</v>
+      </c>
+      <c r="E107">
+        <v>13</v>
+      </c>
+      <c r="F107">
+        <f>SUM(B107:E107)</f>
+        <v>52</v>
+      </c>
+      <c r="G107">
+        <v>13</v>
+      </c>
+      <c r="H107">
+        <v>13</v>
+      </c>
+      <c r="I107">
+        <v>13</v>
+      </c>
+      <c r="J107">
+        <v>13</v>
+      </c>
+      <c r="K107">
+        <v>52</v>
+      </c>
+      <c r="L107">
+        <v>13</v>
+      </c>
+      <c r="M107">
+        <v>13</v>
+      </c>
+      <c r="N107">
+        <v>13</v>
+      </c>
+      <c r="O107">
+        <v>13</v>
+      </c>
+      <c r="P107">
+        <v>52</v>
+      </c>
+      <c r="Q107">
+        <f>P107+K107+F107</f>
+        <v>156</v>
+      </c>
+      <c r="R107">
+        <f>10*(B107-B$102)/B$103+50</f>
+        <v>49.929294624585005</v>
+      </c>
+      <c r="S107">
+        <f t="shared" ref="S107" si="34">10*(C107-C$102)/C$103+50</f>
+        <v>51.41070611678181</v>
+      </c>
+      <c r="T107">
+        <f t="shared" ref="T107" si="35">10*(D107-D$102)/D$103+50</f>
+        <v>52.346541291030888</v>
+      </c>
+      <c r="U107">
+        <f t="shared" ref="U107" si="36">10*(E107-E$102)/E$103+50</f>
+        <v>48.864167170262995</v>
+      </c>
+      <c r="V107">
+        <f t="shared" ref="V107" si="37">10*(F107-F$102)/F$103+50</f>
+        <v>51.237859406744548</v>
+      </c>
+      <c r="W107">
+        <f t="shared" ref="W107:W108" si="38">10*(G107-G$102)/G$103+50</f>
+        <v>50.256241842444851</v>
+      </c>
+      <c r="X107">
+        <f t="shared" ref="X107" si="39">10*(H107-H$102)/H$103+50</f>
+        <v>50.547705791237867</v>
+      </c>
+      <c r="Y107">
+        <f t="shared" ref="Y107" si="40">10*(I107-I$102)/I$103+50</f>
+        <v>50.146734636850375</v>
+      </c>
+      <c r="Z107">
+        <f t="shared" ref="Z107" si="41">10*(J107-J$102)/J$103+50</f>
+        <v>50.245752420817368</v>
+      </c>
+      <c r="AA107">
+        <f t="shared" ref="AA107" si="42">10*(K107-K$102)/K$103+50</f>
+        <v>50.570084614300761</v>
+      </c>
+      <c r="AB107">
+        <f t="shared" ref="AB107:AB108" si="43">10*(L107-L$102)/L$103+50</f>
+        <v>50.465849558466388</v>
+      </c>
+      <c r="AC107">
+        <f t="shared" ref="AC107" si="44">10*(M107-M$102)/M$103+50</f>
+        <v>49.332141752551557</v>
+      </c>
+      <c r="AD107">
+        <f t="shared" ref="AD107" si="45">10*(N107-N$102)/N$103+50</f>
+        <v>50.869320806018827</v>
+      </c>
+      <c r="AE107">
+        <f t="shared" ref="AE107" si="46">10*(O107-O$102)/O$103+50</f>
+        <v>50.236703631520847</v>
+      </c>
+      <c r="AF107">
+        <f t="shared" ref="AF107:AF108" si="47">10*(P107-P$102)/P$103+50</f>
+        <v>50.469896229620318</v>
+      </c>
+      <c r="AG107">
+        <f t="shared" ref="AG107:AG108" si="48">10*(Q107-Q$102)/Q$103+50</f>
+        <v>51.416073907699754</v>
+      </c>
+      <c r="AH107">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>39</v>
+      </c>
+      <c r="B108">
+        <v>11</v>
+      </c>
+      <c r="C108">
+        <v>11</v>
+      </c>
+      <c r="D108">
+        <v>11</v>
+      </c>
+      <c r="E108">
+        <v>11</v>
+      </c>
+      <c r="F108">
+        <f>SUM(B108:E108)</f>
+        <v>44</v>
+      </c>
+      <c r="G108">
+        <v>11</v>
+      </c>
+      <c r="H108">
+        <v>11</v>
+      </c>
+      <c r="I108">
+        <v>11</v>
+      </c>
+      <c r="J108">
+        <v>11</v>
+      </c>
+      <c r="K108">
+        <v>44</v>
+      </c>
+      <c r="L108">
+        <v>11</v>
+      </c>
+      <c r="M108">
+        <v>11</v>
+      </c>
+      <c r="N108">
+        <v>11</v>
+      </c>
+      <c r="O108">
+        <v>11</v>
+      </c>
+      <c r="P108">
+        <v>44</v>
+      </c>
+      <c r="Q108">
+        <f>P108+K108+F108</f>
+        <v>132</v>
+      </c>
+      <c r="R108">
+        <f>10*(B108-B$102)/B$103+50</f>
+        <v>47.101079607985106</v>
+      </c>
+      <c r="S108">
+        <f t="shared" ref="S108" si="49">10*(C108-C$102)/C$103+50</f>
+        <v>48.671470938564703</v>
+      </c>
+      <c r="T108">
+        <f t="shared" ref="T108" si="50">10*(D108-D$102)/D$103+50</f>
+        <v>49.695082205120279</v>
+      </c>
+      <c r="U108">
+        <f t="shared" ref="U108" si="51">10*(E108-E$102)/E$103+50</f>
+        <v>46.28272892086072</v>
+      </c>
+      <c r="V108">
+        <f t="shared" ref="V108" si="52">10*(F108-F$102)/F$103+50</f>
+        <v>45.942204190725093</v>
+      </c>
+      <c r="W108">
+        <f t="shared" ref="W108" si="53">10*(G108-G$102)/G$103+50</f>
+        <v>47.693823417996306</v>
+      </c>
+      <c r="X108">
+        <f t="shared" ref="X108" si="54">10*(H108-H$102)/H$103+50</f>
+        <v>47.939582975819462</v>
+      </c>
+      <c r="Y108">
+        <f t="shared" ref="Y108" si="55">10*(I108-I$102)/I$103+50</f>
+        <v>47.478832148661773</v>
+      </c>
+      <c r="Z108">
+        <f t="shared" ref="Z108" si="56">10*(J108-J$102)/J$103+50</f>
+        <v>47.65888483326615</v>
+      </c>
+      <c r="AA108">
+        <f t="shared" ref="AA108" si="57">10*(K108-K$102)/K$103+50</f>
+        <v>45.612827098641986</v>
+      </c>
+      <c r="AB108">
+        <f t="shared" ref="AB108" si="58">10*(L108-L$102)/L$103+50</f>
+        <v>47.803852081515586</v>
+      </c>
+      <c r="AC108">
+        <f t="shared" ref="AC108" si="59">10*(M108-M$102)/M$103+50</f>
+        <v>46.606189722149765</v>
+      </c>
+      <c r="AD108">
+        <f t="shared" ref="AD108" si="60">10*(N108-N$102)/N$103+50</f>
+        <v>48.019088655137431</v>
+      </c>
+      <c r="AE108">
+        <f t="shared" ref="AE108" si="61">10*(O108-O$102)/O$103+50</f>
+        <v>47.606663281289251</v>
+      </c>
+      <c r="AF108">
+        <f t="shared" ref="AF108" si="62">10*(P108-P$102)/P$103+50</f>
+        <v>44.686558018908705</v>
+      </c>
+      <c r="AG108">
+        <f t="shared" ref="AG108" si="63">10*(Q108-Q$102)/Q$103+50</f>
+        <v>41.536488505143339</v>
+      </c>
+      <c r="AH108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A110" t="s">
+        <v>40</v>
+      </c>
+      <c r="B110" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A111">
+        <v>1</v>
+      </c>
+      <c r="B111" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="112" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="A112">
+        <v>2</v>
+      </c>
+      <c r="B112" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113">
+        <v>3</v>
+      </c>
+      <c r="B113" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114">
+        <v>4</v>
+      </c>
+      <c r="B114" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115">
+        <v>5</v>
+      </c>
+      <c r="B115" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/dammy-data/test_data_3.xlsx
+++ b/dammy-data/test_data_3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shunt\tasuke-ru-2\task-ru\dammy-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B21EBC6-6502-49A0-85ED-CC3B981165B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5960688-E3A2-4052-9E49-1FE76610A077}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4B7B13BA-CBF5-4572-A684-3AD26FC56B40}"/>
   </bookViews>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01BD7CB6-7FE0-4BBA-ACE2-A0970DD41992}">
   <dimension ref="A1:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR1" workbookViewId="0">
-      <selection activeCell="BL117" sqref="BL117"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="Q114" sqref="Q114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
